--- a/docs/PTA2_DDC_30/PTA2_DDC_30_31.07.24_output.xlsx
+++ b/docs/PTA2_DDC_30/PTA2_DDC_30_31.07.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K59"/>
+  <dimension ref="A1:N59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,2748 +505,3268 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731437519.4562514</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731437523.3341267</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731437519.4562514.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731437523.3341267.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>289.41</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>289.49</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.07999999999998408</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731437524.6927843</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731437528.5902805</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731437524.6927843.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731437528.5902805.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>289.74</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>289.8</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>-0.06000000000000227</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731437535.0582108</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731437535.0582108.png</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731437535.0582108.png</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>289.11</v>
       </c>
-      <c r="J5" t="n">
-        <v>289.11</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
+      <c r="L5" t="n">
+        <v>289.15</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-0.03999999999996362</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731437535.2747242</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731437538.2106476</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731437535.2747242.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731437538.2106476.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>132.79</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>133.21</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-0.4200000000000159</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.32</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731437538.655452</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731437541.7928858</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731437538.655452.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731437541.7928858.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>132.22</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>133.3</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>1.080000000000013</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.8200000000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731437543.5601768</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731437546.3602114</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731437543.5601768.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731437546.3602114.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>133.99</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>133.17</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.8200000000000216</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.61</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731437554.0429077</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731437554.0429077.png</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731437554.0429077.png</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>133.27</v>
       </c>
-      <c r="J9" t="n">
-        <v>133.27</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
+      <c r="L9" t="n">
+        <v>133.35</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-0.07999999999998408</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731437558.1954696</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731437560.4335086</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731437558.1954696.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731437560.4335086.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>6782</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>6781</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>-1</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731437562.7215257</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731437564.5989165</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731437562.7215257.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731437564.5989165.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>6798.5</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>6787.5</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>11</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731437565.7197428</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731437570.683223</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731437565.7197428.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731437570.683223.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>6765</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>6749</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>-16</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.24</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731437572.4946203</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731437572.4946203.png</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731437572.4946203.png</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>6749</v>
       </c>
-      <c r="J13" t="n">
-        <v>6749</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
+      <c r="L13" t="n">
+        <v>6747.5</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731437576.8422382</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731437578.7314053</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731437576.8422382.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731437578.7314053.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>511.05</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>512.5</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>1.449999999999989</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731437581.5250537</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731437584.1645744</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731437581.5250537.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731437584.1645744.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>513.2</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>513.15</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>0.05000000000006821</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731437587.3136516</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731437588.3695633</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731437587.3136516.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731437588.3695633.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>515.05</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>513.6</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>1.449999999999932</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731437589.8791854</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731437591.0567505</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731437589.8791854.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731437591.0567505.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>513</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>514.1</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>1.100000000000023</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731437593.8027215</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731437593.8027215.png</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731437593.8027215.png</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>514.85</v>
       </c>
-      <c r="J18" t="n">
-        <v>514.85</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
+      <c r="L18" t="n">
+        <v>514.95</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-0.1000000000000227</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731437596.5595126</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731437601.0376248</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731437596.5595126.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731437601.0376248.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>1042.4</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>1039.6</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>-2.800000000000182</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-0.27</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731437602.356569</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731437603.4315507</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731437602.356569.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731437603.4315507.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>1045.6</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>1040.6</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.48</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731437611.8689084</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731437613.314804</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731437611.8689084.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731437613.314804.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>1042.8</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>1041</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>1.799999999999955</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731437617.0140576</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731437620.30249</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/CNY1731437617.0140576.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/CNY1731437620.30249.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>11.962</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>11.961</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.0009999999999994458</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731437621.296235</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>./test_images/CNY1731437621.296235.png</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
+          <t>./test_images/CNY1731437621.296235.png</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>11.946</v>
       </c>
-      <c r="J23" t="n">
-        <v>11.946</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
+      <c r="L23" t="n">
+        <v>11.859</v>
+      </c>
+      <c r="M23" t="n">
+        <v>-0.08699999999999974</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-0.73</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731437633.692871</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731437636.0754225</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731437633.692871.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731437636.0754225.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>127.4</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>127.64</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>0.2399999999999949</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731437637.862199</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731437643.4603198</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731437637.862199.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731437643.4603198.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>128</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>129.52</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>-1.52000000000001</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-1.19</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731437652.8600934</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731437657.0444877</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731437652.8600934.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731437657.0444877.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>165.44</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>164.76</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>-0.6800000000000068</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.41</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731437657.857991</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731437658.890242</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731437657.857991.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731437658.890242.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>165.42</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>165.4</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0.01999999999998181</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731437666.3166287</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731437666.815812</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731437666.3166287.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731437666.815812.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>165.28</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>165.14</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.1400000000000148</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731437668.6979601</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731437668.6979601.png</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731437668.6979601.png</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>165.44</v>
       </c>
-      <c r="J29" t="n">
-        <v>165.44</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
+      <c r="L29" t="n">
+        <v>165.68</v>
+      </c>
+      <c r="M29" t="n">
+        <v>-0.2400000000000091</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731437672.0804498</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731437677.7518353</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731437672.0804498.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731437677.7518353.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>51.3</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>51.005</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>-0.2949999999999946</v>
+      </c>
+      <c r="N30" t="n">
+        <v>-0.58</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731437677.903254</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731437678.9104185</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731437677.903254.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731437678.9104185.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>51.13</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>50.985</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.1450000000000031</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731437682.57995</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731437686.1385796</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731437682.57995.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731437686.1385796.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>50.61</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>50.83</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.2199999999999989</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.43</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731437687.003766</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731437688.6639109</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731437687.003766.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731437688.6639109.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>50.875</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>50.705</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.1700000000000017</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731437692.681234</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731437696.3458126</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731437692.681234.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731437696.3458126.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>1421.2</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>1418.6</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>-2.600000000000136</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.18</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731437697.3964164</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731437697.8585007</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731437697.3964164.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731437697.8585007.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>1421</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>1418.4</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>2.599999999999909</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731437701.6183076</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731437706.769448</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731437701.6183076.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731437706.769448.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>1413.4</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>1414.2</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.7999999999999545</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731437706.9613647</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731437706.9613647.png</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731437706.9613647.png</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>1414.8</v>
       </c>
-      <c r="J37" t="n">
-        <v>1414.8</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
+      <c r="L37" t="n">
+        <v>1416.6</v>
+      </c>
+      <c r="M37" t="n">
+        <v>-1.799999999999955</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-0.13</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731437708.7268634</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731437711.0853715</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731437708.7268634.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731437711.0853715.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>61.3</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>61</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.2999999999999972</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.49</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731437714.9185605</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731437715.370429</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731437714.9185605.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731437715.370429.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>60.73</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>60.95</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.220000000000006</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731437717.1780362</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731437717.8090808</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731437717.1780362.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731437717.8090808.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>61</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>60.87</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.1300000000000026</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731437722.8702817</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731437724.541734</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731437722.8702817.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731437724.541734.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>60.55</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>60.67</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.1200000000000045</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731437725.9114723</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1731437725.9114723.png</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1731437725.9114723.png</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>60.77</v>
       </c>
-      <c r="J42" t="n">
-        <v>60.77</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
+      <c r="L42" t="n">
+        <v>60.94</v>
+      </c>
+      <c r="M42" t="n">
+        <v>-0.1699999999999946</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.28</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731437731.3876123</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731437734.856012</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/SELG1731437731.3876123.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/SELG1731437734.856012.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>57.81</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>57.99</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>0.1799999999999997</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731437735.4564366</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731437737.1698668</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/SELG1731437735.4564366.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/SELG1731437737.1698668.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>58.32</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>57.88</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.4399999999999977</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731437743.2223127</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731437743.2223127.png</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
+          <t>./test_images/SELG1731437743.2223127.png</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>58</v>
       </c>
-      <c r="J45" t="n">
-        <v>58</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
+      <c r="L45" t="n">
+        <v>58.8</v>
+      </c>
+      <c r="M45" t="n">
+        <v>-0.7999999999999972</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-1.38</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731437744.8562038</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731437746.914407</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731437744.8562038.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731437746.914407.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>142.48</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>142.06</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.4199999999999875</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731437752.882966</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731437757.4471264</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731437752.882966.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731437757.4471264.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>143.5</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>143.96</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>-0.460000000000008</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-0.32</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731437775.4933896</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731437782.420437</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731437775.4933896.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731437782.420437.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>85.23999999999999</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>85</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>-0.2399999999999949</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-0.28</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731437789.07504</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731437792.0576653</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731437789.07504.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731437792.0576653.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>376.74</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>374.79</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>1.949999999999989</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.52</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731437792.8971887</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731437795.9031143</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731437792.8971887.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731437795.9031143.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>372.01</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>374.06</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>2.050000000000011</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.5499999999999999</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731437797.0666437</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731437799.607387</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731437797.0666437.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731437799.607387.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>374.3</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>373.44</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.8600000000000136</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731437802.4033089</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>./test_images/BSPB1731437802.4033089.png</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
+          <t>./test_images/BSPB1731437802.4033089.png</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>375</v>
       </c>
-      <c r="J52" t="n">
-        <v>375</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0</v>
+      <c r="L52" t="n">
+        <v>376.43</v>
+      </c>
+      <c r="M52" t="n">
+        <v>-1.430000000000007</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-0.38</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731437809.0821247</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731437810.022418</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/FEES1731437809.0821247.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/FEES1731437810.022418.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>0.09818</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>0.0975</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.00068</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731437810.541433</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731437812.5017962</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/FEES1731437810.541433.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/FEES1731437812.5017962.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>0.09818</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>0.09810000000000001</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>7.999999999999674e-05</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731437815.5123546</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731437822.4820383</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/FEES1731437815.5123546.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/FEES1731437822.4820383.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>0.09886</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>0.09982000000000001</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>-0.0009600000000000025</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-0.97</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731437824.8617115</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731437825.2711906</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/FEES1731437824.8617115.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/FEES1731437825.2711906.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>0.10016</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>0.10002</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>0.0001400000000000012</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731437826.5594163</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731437829.5348098</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731437826.5594163.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731437829.5348098.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>34.76</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>34.655</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>0.1049999999999969</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731437832.4173958</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731437833.8365784</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731437832.4173958.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731437833.8365784.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>34.635</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>34.685</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>0.05000000000000426</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731437842.4247692</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>./test_images/RUAL1731437842.4247692.png</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
+          <t>./test_images/RUAL1731437842.4247692.png</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>34.595</v>
       </c>
-      <c r="J59" t="n">
-        <v>34.595</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0</v>
+      <c r="L59" t="n">
+        <v>34.69</v>
+      </c>
+      <c r="M59" t="n">
+        <v>-0.09499999999999886</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-0.27</v>
       </c>
     </row>
   </sheetData>
@@ -3245,7 +3780,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3274,6 +3809,16 @@
           <t>part</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -3282,13 +3827,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7700000000000102</v>
+        <v>0.6000000000000156</v>
       </c>
       <c r="C2" t="n">
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1540000000000021</v>
+        <v>0.1200000000000031</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="3">
@@ -3298,13 +3849,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.050000000000011</v>
+        <v>3.949999999999989</v>
       </c>
       <c r="C3" t="n">
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8100000000000023</v>
+        <v>0.7899999999999977</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7599999999999999</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="4">
@@ -3322,6 +3879,12 @@
       <c r="D4" t="n">
         <v>0.06000000000000227</v>
       </c>
+      <c r="E4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -3330,13 +3893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.860000000000014</v>
+        <v>3.430000000000007</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>1.215000000000003</v>
+        <v>0.8575000000000017</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9199999999999999</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="6">
@@ -3346,13 +3915,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7999999999997272</v>
+        <v>-1.000000000000227</v>
       </c>
       <c r="C6" t="n">
         <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1999999999999318</v>
+        <v>-0.2500000000000568</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="7">
@@ -3370,6 +3945,12 @@
       <c r="D7" t="n">
         <v>-1.500000000000112e-05</v>
       </c>
+      <c r="E7" t="n">
+        <v>-0.06000000000000008</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.02</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -3378,13 +3959,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.480000000000018</v>
+        <v>1.400000000000034</v>
       </c>
       <c r="C8" t="n">
         <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3700000000000045</v>
+        <v>0.3500000000000085</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="9">
@@ -3394,13 +3981,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-6</v>
+        <v>-4.5</v>
       </c>
       <c r="C9" t="n">
         <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.5</v>
+        <v>-1.125</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.06999999999999999</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="10">
@@ -3410,13 +4003,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.5200000000000102</v>
+        <v>-0.7600000000000193</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1300000000000026</v>
+        <v>-0.1900000000000048</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.47</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="11">
@@ -3434,6 +4033,12 @@
       <c r="D11" t="n">
         <v>1.333333333333258</v>
       </c>
+      <c r="E11" t="n">
+        <v>0.3799999999999999</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -3442,13 +4047,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1550000000000011</v>
+        <v>0.06000000000000227</v>
       </c>
       <c r="C12" t="n">
         <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>0.05166666666666705</v>
+        <v>0.02000000000000076</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.1699999999999999</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="13">
@@ -3458,13 +4069,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01999999999998181</v>
+        <v>-0.01999999999998181</v>
       </c>
       <c r="C13" t="n">
         <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>0.006666666666660603</v>
+        <v>-0.006666666666660603</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-1.734723475976807e-18</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0</v>
       </c>
     </row>
     <row r="14">
@@ -3474,13 +4091,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.6199999999999974</v>
+        <v>-0.1799999999999997</v>
       </c>
       <c r="C14" t="n">
         <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2066666666666658</v>
+        <v>-0.05999999999999991</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.3199999999999998</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="15">
@@ -3498,6 +4121,12 @@
       <c r="D15" t="n">
         <v>-0.02000000000001023</v>
       </c>
+      <c r="E15" t="n">
+        <v>-0.03000000000000003</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.02</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -3506,13 +4135,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0009999999999994458</v>
+        <v>-0.0860000000000003</v>
       </c>
       <c r="C16" t="n">
         <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0004999999999997229</v>
+        <v>-0.04300000000000015</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.72</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.36</v>
       </c>
     </row>
     <row r="17">
@@ -3530,6 +4165,12 @@
       <c r="D17" t="n">
         <v>-0.6400000000000077</v>
       </c>
+      <c r="E17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.5</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -3546,6 +4187,12 @@
       <c r="D18" t="n">
         <v>-0.2399999999999949</v>
       </c>
+      <c r="E18" t="n">
+        <v>-0.28</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.28</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -3560,6 +4207,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
